--- a/Google Sheets/Google Sheets.xlsx
+++ b/Google Sheets/Google Sheets.xlsx
@@ -37310,11 +37310,11 @@
             </c:numLit>
           </c:bubbleSize>
         </c:ser>
-        <c:axId val="951279952"/>
-        <c:axId val="801055049"/>
+        <c:axId val="1877744862"/>
+        <c:axId val="2141772375"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="951279952"/>
+        <c:axId val="1877744862"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -37324,7 +37324,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="B7B7B7"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -37333,7 +37333,9 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -37387,11 +37389,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="801055049"/>
+        <c:crossAx val="2141772375"/>
         <c:minorUnit val="500.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="801055049"/>
+        <c:axId val="2141772375"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="48.0"/>
@@ -37402,7 +37404,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="B7B7B7"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -37411,7 +37413,9 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -37465,7 +37469,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="951279952"/>
+        <c:crossAx val="1877744862"/>
         <c:minorUnit val="5.0"/>
       </c:valAx>
     </c:plotArea>
@@ -37491,7 +37495,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="CCCCCC"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
   </c:spPr>
 </c:chartSpace>
